--- a/biology/Zoologie/Anatomie_des_décapodes/Anatomie_des_décapodes.xlsx
+++ b/biology/Zoologie/Anatomie_des_décapodes/Anatomie_des_décapodes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anatomie_des_d%C3%A9capodes</t>
+          <t>Anatomie_des_décapodes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le corps des décapodes (crustacés et non céphalopodes) tels que le crabe, le homard ou la crevette est formé de dix-neuf segments corporels regroupés en deux parties principales : le céphalothorax et l'abdomen. Chaque segment peut porter une paire d'appendices qui peuvent être parfois réduits ou manquants. Ce sont, de la tête à la queue :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anatomie_des_d%C3%A9capodes</t>
+          <t>Anatomie_des_décapodes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tête ou céphalon
-1 antennules
+          <t>Tête ou céphalon</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 antennules
 2 antennes
 3 mandibules
 4 premiers maxillaires ou maxillules
 5 seconds maxillaires ou maxilles
 La tête porte aussi les yeux composés.
-Thorax ou péréion
-6 premières pattes-mâchoires ou maxillipèdes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anatomie_des_décapodes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomie_des_d%C3%A9capodes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Céphalothorax</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Thorax ou péréion</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6 premières pattes-mâchoires ou maxillipèdes
 7 secondes pattes-mâchoires ou maxillipèdes
 8 troisièmes pattes-mâchoires ou maxillipèdes
 9 premières pattes locomotrices ou péréiopodes
@@ -534,31 +586,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anatomie_des_d%C3%A9capodes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anatomie_des_décapodes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Anatomie_des_d%C3%A9capodes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Abdomen ou pléon</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">14 premières pattes natatoires ou pléopodes
 15 deuxièmes pattes natatoires ou pléopodes
